--- a/va_facility_data_2025-02-20/Mat-Su VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mat-Su%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mat-Su VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mat-Su%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re34ee9d70efd414face7abb049eda1e6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R033688de3bea44268b412f015df12c2c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R94545b5678694cf1bb186ad33b8946a1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4dcbcc2e05014b93b8eab146f2dc316a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcac3629ae5ff41dfa56a1effb3317ced"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R96b9eb3c3ef64a05b91bb641bf12e2ee"/>
   </x:sheets>
 </x:workbook>
 </file>
